--- a/data/trans_bre/P23_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P23_R-Habitat-trans_bre.xlsx
@@ -541,22 +541,22 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2012</t>
         </is>
       </c>
     </row>
@@ -581,22 +581,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-13,01</t>
+          <t>-22,01</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-13,42</t>
+          <t>-26,74</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-32,28%</t>
+          <t>-54,53%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-48,75%</t>
+          <t>-59,91%</t>
         </is>
       </c>
     </row>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-25,37; -1,12</t>
+          <t>-34,3; -10,46</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-24,64; -2,85</t>
+          <t>-38,02; -13,96</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-55,04; -3,58</t>
+          <t>-72,15; -30,9</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-69,8; -15,29</t>
+          <t>-76,55; -35,77</t>
         </is>
       </c>
     </row>
@@ -641,22 +641,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-10,41</t>
+          <t>-22,61</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-9,77</t>
+          <t>-12,84</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-31,31%</t>
+          <t>-47,98%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-36,44%</t>
+          <t>-34,64%</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-15,86; -5,14</t>
+          <t>-27,77; -16,77</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-14,75; -5,17</t>
+          <t>-18,4; -7,36</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-43,79; -16,47</t>
+          <t>-55,87; -38,21</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-48,34; -20,76</t>
+          <t>-46,39; -21,84</t>
         </is>
       </c>
     </row>
@@ -701,22 +701,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-6,44</t>
+          <t>-18,83</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-5,14</t>
+          <t>-11,75</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-21,28%</t>
+          <t>-44,53%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-23,8%</t>
+          <t>-29,46%</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-10,26; -2,33</t>
+          <t>-23,45; -14,4</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,23; -1,17</t>
+          <t>-16,0; -7,58</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-32,09; -8,23</t>
+          <t>-52,06; -36,41</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-37,79; -5,56</t>
+          <t>-38,33; -20,33</t>
         </is>
       </c>
     </row>
@@ -761,22 +761,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-11,96</t>
+          <t>-12,57</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-6,56</t>
+          <t>-11,92</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-31,08%</t>
+          <t>-33,59%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-27,83%</t>
+          <t>-28,69%</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-16,77; -7,16</t>
+          <t>-17,34; -7,13</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-13,86; -1,44</t>
+          <t>-16,97; -6,53</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-41,39; -20,34</t>
+          <t>-43,33; -20,41</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-52,02; -7,27</t>
+          <t>-38,13; -16,66</t>
         </is>
       </c>
     </row>
@@ -821,22 +821,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-5,0</t>
+          <t>-13,75</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-5,88</t>
+          <t>-10,55</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-18,28%</t>
+          <t>-31,94%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-26,17%</t>
+          <t>-27,37%</t>
         </is>
       </c>
     </row>
@@ -849,22 +849,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-8,84; -1,55</t>
+          <t>-17,8; -9,34</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,36; -2,5</t>
+          <t>-15,05; -6,58</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-29,93; -6,0</t>
+          <t>-39,82; -23,19</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-37,31; -12,23</t>
+          <t>-36,79; -17,56</t>
         </is>
       </c>
     </row>
@@ -881,22 +881,22 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-8,19</t>
+          <t>-16,74</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-6,66</t>
+          <t>-12,1</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-25,49%</t>
+          <t>-39,59%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-28,59%</t>
+          <t>-30,6%</t>
         </is>
       </c>
     </row>
@@ -909,22 +909,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-10,43; -6,06</t>
+          <t>-19,2; -14,72</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-9,09; -4,24</t>
+          <t>-14,71; -9,95</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-31,27; -19,36</t>
+          <t>-44,14; -35,64</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-37,29; -19,58</t>
+          <t>-35,64; -25,81</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P23_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P23_R-Habitat-trans_bre.xlsx
@@ -571,7 +571,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -609,29 +609,29 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-34,3; -10,46</t>
+          <t>-33,33; -8,74</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-38,02; -13,96</t>
+          <t>-38,64; -13,15</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-72,15; -30,9</t>
+          <t>-71,34; -26,46</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-76,55; -35,77</t>
+          <t>-77,11; -34,79</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -669,29 +669,29 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-27,77; -16,77</t>
+          <t>-28,0; -17,09</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-18,4; -7,36</t>
+          <t>-17,99; -6,89</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-55,87; -38,21</t>
+          <t>-56,06; -38,74</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-46,39; -21,84</t>
+          <t>-45,98; -20,7</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -729,29 +729,29 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-23,45; -14,4</t>
+          <t>-23,12; -14,22</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-16,0; -7,58</t>
+          <t>-16,33; -7,3</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-52,06; -36,41</t>
+          <t>-51,74; -35,74</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-38,33; -20,33</t>
+          <t>-38,76; -19,45</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -789,22 +789,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-17,34; -7,13</t>
+          <t>-17,46; -7,81</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-16,97; -6,53</t>
+          <t>-17,02; -6,92</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-43,33; -20,41</t>
+          <t>-43,56; -21,87</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-38,13; -16,66</t>
+          <t>-38,92; -17,79</t>
         </is>
       </c>
     </row>
@@ -849,22 +849,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-17,8; -9,34</t>
+          <t>-17,87; -9,31</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-15,05; -6,58</t>
+          <t>-15,2; -6,35</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-39,82; -23,19</t>
+          <t>-39,46; -22,54</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-36,79; -17,56</t>
+          <t>-37,27; -16,94</t>
         </is>
       </c>
     </row>
@@ -909,22 +909,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-19,2; -14,72</t>
+          <t>-19,23; -14,65</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-14,71; -9,95</t>
+          <t>-14,5; -9,97</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-44,14; -35,64</t>
+          <t>-43,99; -35,45</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-35,64; -25,81</t>
+          <t>-35,45; -25,49</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P23_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P23_R-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-33,33; -8,74</t>
+          <t>-34,99; -10,03</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-38,64; -13,15</t>
+          <t>-38,86; -14,47</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-71,34; -26,46</t>
+          <t>-72,15; -29,54</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-77,11; -34,79</t>
+          <t>-75,55; -36,92</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-28,0; -17,09</t>
+          <t>-27,67; -17,23</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-17,99; -6,89</t>
+          <t>-17,75; -6,99</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-56,06; -38,74</t>
+          <t>-55,95; -38,84</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-45,98; -20,7</t>
+          <t>-45,16; -20,6</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-23,12; -14,22</t>
+          <t>-23,28; -14,9</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-16,33; -7,3</t>
+          <t>-16,33; -7,55</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-51,74; -35,74</t>
+          <t>-52,02; -36,82</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-38,76; -19,45</t>
+          <t>-38,3; -19,7</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-17,46; -7,81</t>
+          <t>-17,6; -7,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-17,02; -6,92</t>
+          <t>-17,08; -6,87</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-43,56; -21,87</t>
+          <t>-43,44; -20,34</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-38,92; -17,79</t>
+          <t>-38,32; -17,55</t>
         </is>
       </c>
     </row>
@@ -849,22 +849,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-17,87; -9,31</t>
+          <t>-18,03; -9,46</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-15,2; -6,35</t>
+          <t>-15,06; -6,7</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-39,46; -22,54</t>
+          <t>-39,93; -23,01</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-37,27; -16,94</t>
+          <t>-36,64; -17,95</t>
         </is>
       </c>
     </row>
@@ -909,22 +909,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-19,23; -14,65</t>
+          <t>-18,96; -14,68</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-14,5; -9,97</t>
+          <t>-14,4; -9,77</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-43,99; -35,45</t>
+          <t>-43,67; -35,4</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-35,45; -25,49</t>
+          <t>-35,29; -25,35</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P23_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P23_R-Habitat-trans_bre.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -514,12 +521,14 @@
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
     <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que fuma diariamente</t>
+          <t>Población que fuma diariamente (Tabaco/Marihuana) (2007/2012/2016)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -529,12 +538,14 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -551,12 +562,22 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -567,11 +588,13 @@
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
       <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -581,22 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-22,01</t>
+          <t>-22,5</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-26,74</t>
+          <t>-15,1</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-54,53%</t>
+          <t>-11,92</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-59,91%</t>
+          <t>-48,91%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>-39,41%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>-32,1%</t>
         </is>
       </c>
     </row>
@@ -609,29 +642,39 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-34,99; -10,03</t>
+          <t>-27,35; -17,53</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-38,86; -14,47</t>
+          <t>-19,7; -10,35</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-72,15; -29,54</t>
+          <t>-16,99; -7,32</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-75,55; -36,92</t>
+          <t>-56,46; -40,04</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-49,07; -28,69</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>-42,65; -20,87</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -641,22 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-22,61</t>
+          <t>-18,83</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-12,84</t>
+          <t>-11,75</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-47,98%</t>
+          <t>-7,27</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-34,64%</t>
+          <t>-44,53%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>-29,46%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>-21,84%</t>
         </is>
       </c>
     </row>
@@ -669,29 +722,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-27,67; -17,23</t>
+          <t>-23,28; -14,9</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-17,75; -6,99</t>
+          <t>-16,33; -7,55</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-55,95; -38,84</t>
+          <t>-11,38; -2,92</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-45,16; -20,6</t>
+          <t>-52,02; -36,82</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-38,3; -19,7</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>-31,89; -9,34</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -701,22 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-18,83</t>
+          <t>-12,57</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-11,75</t>
+          <t>-11,92</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-44,53%</t>
+          <t>-12,17</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-29,46%</t>
+          <t>-33,59%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>-28,69%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>-29,58%</t>
         </is>
       </c>
     </row>
@@ -729,29 +802,39 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-23,28; -14,9</t>
+          <t>-17,6; -7,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-16,33; -7,55</t>
+          <t>-17,08; -6,87</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-52,02; -36,82</t>
+          <t>-17,2; -7,38</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-38,3; -19,7</t>
+          <t>-43,44; -20,34</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>-38,32; -17,55</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>-40,09; -19,34</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -761,22 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-12,57</t>
+          <t>-13,75</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-11,92</t>
+          <t>-10,55</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-33,59%</t>
+          <t>-5,95</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-28,69%</t>
+          <t>-31,94%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>-27,37%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>-19,43%</t>
         </is>
       </c>
     </row>
@@ -789,29 +882,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-17,6; -7,0</t>
+          <t>-18,03; -9,46</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-17,08; -6,87</t>
+          <t>-15,06; -6,7</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-43,44; -20,34</t>
+          <t>-9,94; -2,31</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-38,32; -17,55</t>
+          <t>-39,93; -23,01</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>-36,64; -17,95</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>-30,75; -7,92</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -821,22 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-13,75</t>
+          <t>-16,74</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-10,55</t>
+          <t>-12,1</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-31,94%</t>
+          <t>-8,95</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-27,37%</t>
+          <t>-39,59%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>-30,6%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-25,52%</t>
         </is>
       </c>
     </row>
@@ -849,103 +962,52 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-18,03; -9,46</t>
+          <t>-18,96; -14,68</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-15,06; -6,7</t>
+          <t>-14,4; -9,77</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-39,93; -23,01</t>
+          <t>-11,33; -6,78</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-36,64; -17,95</t>
+          <t>-43,67; -35,4</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-35,29; -25,35</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-31,15; -19,86</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-16,74</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-12,1</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-39,59%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-30,6%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-18,96; -14,68</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-14,4; -9,77</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-43,67; -35,4</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-35,29; -25,35</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P23_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P23_R-Habitat-trans_bre.xlsx
@@ -528,7 +528,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que fuma diariamente (Tabaco/Marihuana) (2007/2012/2016)</t>
+          <t>Población que fuma diariamente tabaco y/o marihuana/hachís</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-27,35; -17,53</t>
+          <t>-27,41; -17,58</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-19,7; -10,35</t>
+          <t>-19,92; -9,45</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-16,99; -7,32</t>
+          <t>-16,77; -6,25</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-56,46; -40,04</t>
+          <t>-56,76; -40,65</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-49,07; -28,69</t>
+          <t>-49,53; -27,36</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-42,65; -20,87</t>
+          <t>-42,69; -18,41</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-23,28; -14,9</t>
+          <t>-23,09; -14,63</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-16,33; -7,55</t>
+          <t>-15,99; -7,7</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-11,38; -2,92</t>
+          <t>-11,44; -3,27</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-52,02; -36,82</t>
+          <t>-51,95; -36,32</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-38,3; -19,7</t>
+          <t>-37,98; -20,11</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-31,89; -9,34</t>
+          <t>-32,16; -9,45</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-17,6; -7,0</t>
+          <t>-17,77; -7,29</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-17,08; -6,87</t>
+          <t>-16,76; -6,38</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-17,2; -7,38</t>
+          <t>-17,42; -7,04</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-43,44; -20,34</t>
+          <t>-43,92; -20,93</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-38,32; -17,55</t>
+          <t>-38,22; -17,01</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-40,09; -19,34</t>
+          <t>-39,87; -18,4</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-18,03; -9,46</t>
+          <t>-17,67; -9,51</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-15,06; -6,7</t>
+          <t>-14,51; -5,57</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-9,94; -2,31</t>
+          <t>-10,05; -1,35</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-39,93; -23,01</t>
+          <t>-39,12; -23,02</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-36,64; -17,95</t>
+          <t>-35,74; -16,02</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-30,75; -7,92</t>
+          <t>-30,14; -4,7</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-18,96; -14,68</t>
+          <t>-18,98; -14,32</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-14,4; -9,77</t>
+          <t>-14,31; -9,69</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-11,33; -6,78</t>
+          <t>-11,0; -6,66</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-43,67; -35,4</t>
+          <t>-43,56; -34,82</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-35,29; -25,35</t>
+          <t>-35,21; -25,25</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-31,15; -19,86</t>
+          <t>-30,39; -19,66</t>
         </is>
       </c>
     </row>
